--- a/data/VGPs_NAM/1.xlsx
+++ b/data/VGPs_NAM/1.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjwwyxSpxrzIaFgAqpthRk8lo1oOQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhk2Cldp2gTq7WHrsJw5vNRd4iJIA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="94">
   <si>
     <t>Study level data</t>
   </si>
@@ -101,6 +101,9 @@
     <t>Q</t>
   </si>
   <si>
+    <t>kept_by_auth</t>
+  </si>
+  <si>
     <t>ref</t>
   </si>
   <si>
@@ -125,7 +128,7 @@
     <t>Gibbard and Head, 2020</t>
   </si>
   <si>
-    <t>no slat, slon provided because of large sampling area; N is less than total listed VGPs because some sites discarded by authors</t>
+    <t>no slat, slon provided because sampling sites distributed over wide area; accepted VGPs = N-1; exact sites retained are not known, but seem to include another study-level pole; VGPs are all of 'Brunhes' age.</t>
   </si>
   <si>
     <t>Site level data</t>
@@ -166,6 +169,9 @@
     <t>normal</t>
   </si>
   <si>
+    <t>y</t>
+  </si>
+  <si>
     <t>Mankinen et al. 1986</t>
   </si>
   <si>
@@ -175,9 +181,6 @@
     <t>5L233</t>
   </si>
   <si>
-    <t>slat/slon approximated from figure 1</t>
-  </si>
-  <si>
     <t>5L352</t>
   </si>
   <si>
@@ -196,12 +199,18 @@
     <t>5L326</t>
   </si>
   <si>
+    <t>site rejected because alpha95 exceeds 10 degrees</t>
+  </si>
+  <si>
     <t>5L217</t>
   </si>
   <si>
     <t>5L258</t>
   </si>
   <si>
+    <t>site rejected based on structural uncertainties</t>
+  </si>
+  <si>
     <t>5L266</t>
   </si>
   <si>
@@ -217,6 +226,9 @@
     <t>5L282</t>
   </si>
   <si>
+    <t>site rejected because n &lt; 5</t>
+  </si>
+  <si>
     <t>5L298</t>
   </si>
   <si>
@@ -256,6 +268,9 @@
     <t>Doell et al. 1968</t>
   </si>
   <si>
+    <t>site rejected because alpha95 &gt; 10</t>
+  </si>
+  <si>
     <t>S46</t>
   </si>
   <si>
@@ -295,7 +310,7 @@
     <t>Different plagioclase separates from the same sample have yielded ages of 0.97 +/- 0.16 and 0.65 +/- 0.35 Ma</t>
   </si>
   <si>
-    <t>2C801b</t>
+    <t>2C801</t>
   </si>
   <si>
     <t>2C804</t>
@@ -683,9 +698,10 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="21" width="9.38"/>
-    <col customWidth="1" min="22" max="22" width="20.88"/>
-    <col customWidth="1" min="23" max="23" width="22.75"/>
-    <col customWidth="1" min="24" max="29" width="9.38"/>
+    <col customWidth="1" min="22" max="22" width="12.25"/>
+    <col customWidth="1" min="23" max="23" width="20.88"/>
+    <col customWidth="1" min="24" max="24" width="22.75"/>
+    <col customWidth="1" min="25" max="30" width="9.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -757,19 +773,22 @@
       <c r="U2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -803,28 +822,29 @@
         <v>0.773</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U3" s="8">
         <v>5.0</v>
       </c>
-      <c r="V3" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="V3" s="5"/>
       <c r="W3" s="5" t="s">
         <v>29</v>
       </c>
       <c r="X3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Y3" s="7"/>
+      <c r="Y3" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" s="1"/>
@@ -832,7 +852,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -846,7 +866,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>5</v>
@@ -858,13 +878,13 @@
         <v>7</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>11</v>
@@ -899,26 +919,25 @@
       <c r="U6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V6" s="2" t="s">
+      <c r="V6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="X6" s="4" t="s">
+      <c r="X6" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="7">
-        <v>37.67</v>
-      </c>
-      <c r="C7" s="7">
-        <v>-118.97</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="9">
         <v>5.0</v>
       </c>
@@ -951,34 +970,33 @@
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
       <c r="S7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U7" s="10"/>
       <c r="V7" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="12"/>
+        <v>40</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="12"/>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="7">
-        <v>37.67</v>
-      </c>
-      <c r="C8" s="7">
-        <v>-118.97</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="9">
         <v>8.0</v>
       </c>
@@ -1010,31 +1028,28 @@
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U8" s="10"/>
       <c r="V8" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y8" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="Y8" s="5"/>
       <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="7">
-        <v>37.67</v>
-      </c>
-      <c r="C9" s="7">
-        <v>-118.97</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="9">
         <v>8.0</v>
       </c>
@@ -1069,34 +1084,31 @@
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
       <c r="S9" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U9" s="10"/>
       <c r="V9" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y9" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="Y9" s="5"/>
       <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="7">
-        <v>37.67</v>
-      </c>
-      <c r="C10" s="7">
-        <v>-118.97</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="9">
         <v>8.0</v>
       </c>
@@ -1131,34 +1143,31 @@
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
       <c r="S10" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T10" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U10" s="10"/>
       <c r="V10" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y10" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="Y10" s="5"/>
       <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="7">
-        <v>37.67</v>
-      </c>
-      <c r="C11" s="7">
-        <v>-118.97</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="9">
         <v>5.0</v>
       </c>
@@ -1193,34 +1202,31 @@
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
       <c r="S11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U11" s="10"/>
       <c r="V11" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y11" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="Y11" s="5"/>
       <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="7">
-        <v>37.67</v>
-      </c>
-      <c r="C12" s="7">
-        <v>-118.97</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="9">
         <v>8.0</v>
       </c>
@@ -1252,31 +1258,28 @@
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U12" s="10"/>
       <c r="V12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y12" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="Y12" s="5"/>
       <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="7">
-        <v>37.67</v>
-      </c>
-      <c r="C13" s="7">
-        <v>-118.97</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="9">
         <v>8.0</v>
       </c>
@@ -1308,31 +1311,28 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U13" s="10"/>
       <c r="V13" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y13" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="Y13" s="5"/>
       <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="7">
-        <v>37.67</v>
-      </c>
-      <c r="C14" s="7">
-        <v>-118.97</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="9">
         <v>8.0</v>
       </c>
@@ -1363,34 +1363,33 @@
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
       <c r="S14" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T14" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U14" s="10"/>
       <c r="V14" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y14" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="Y14" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="7">
-        <v>37.67</v>
-      </c>
-      <c r="C15" s="7">
-        <v>-118.97</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="9">
         <v>8.0</v>
       </c>
@@ -1423,34 +1422,33 @@
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U15" s="10"/>
       <c r="V15" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y15" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="Y15" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="7">
-        <v>37.67</v>
-      </c>
-      <c r="C16" s="7">
-        <v>-118.97</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="9">
         <v>7.0</v>
       </c>
@@ -1481,34 +1479,33 @@
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
       <c r="S16" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T16" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U16" s="10"/>
       <c r="V16" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y16" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="Y16" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="7">
-        <v>37.67</v>
-      </c>
-      <c r="C17" s="7">
-        <v>-118.97</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="9">
         <v>8.0</v>
       </c>
@@ -1539,34 +1536,33 @@
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
       <c r="S17" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T17" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U17" s="10"/>
       <c r="V17" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y17" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="Y17" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="7">
-        <v>37.67</v>
-      </c>
-      <c r="C18" s="7">
-        <v>-118.97</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="9">
         <v>8.0</v>
       </c>
@@ -1597,34 +1593,33 @@
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
       <c r="S18" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T18" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U18" s="10"/>
       <c r="V18" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y18" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="Y18" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
     </row>
     <row r="19">
       <c r="A19" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="7">
-        <v>37.67</v>
-      </c>
-      <c r="C19" s="7">
-        <v>-118.97</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="9">
         <v>7.0</v>
       </c>
@@ -1656,31 +1651,28 @@
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
       <c r="T19" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U19" s="10"/>
       <c r="V19" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y19" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="Y19" s="5"/>
       <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="7">
-        <v>37.67</v>
-      </c>
-      <c r="C20" s="7">
-        <v>-118.97</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="9">
         <v>8.0</v>
       </c>
@@ -1715,34 +1707,31 @@
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
       <c r="S20" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T20" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U20" s="10"/>
       <c r="V20" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y20" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="Y20" s="5"/>
       <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="7">
-        <v>37.67</v>
-      </c>
-      <c r="C21" s="7">
-        <v>-118.97</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="9">
         <v>4.0</v>
       </c>
@@ -1777,34 +1766,33 @@
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
       <c r="S21" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T21" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U21" s="10"/>
       <c r="V21" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y21" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="Y21" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="7">
-        <v>37.67</v>
-      </c>
-      <c r="C22" s="7">
-        <v>-118.97</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
       <c r="D22" s="9">
         <v>6.0</v>
       </c>
@@ -1839,34 +1827,31 @@
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
       <c r="S22" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T22" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U22" s="10"/>
       <c r="V22" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y22" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="Y22" s="5"/>
       <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="7">
-        <v>37.67</v>
-      </c>
-      <c r="C23" s="7">
-        <v>-118.97</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
       <c r="D23" s="9">
         <v>8.0</v>
       </c>
@@ -1901,34 +1886,31 @@
       <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
       <c r="S23" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T23" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U23" s="10"/>
       <c r="V23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X23" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y23" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="Y23" s="5"/>
       <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="7">
-        <v>37.67</v>
-      </c>
-      <c r="C24" s="7">
-        <v>-118.97</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
       <c r="D24" s="9">
         <v>5.0</v>
       </c>
@@ -1963,34 +1945,31 @@
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
       <c r="S24" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T24" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U24" s="10"/>
       <c r="V24" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X24" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y24" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="Y24" s="5"/>
       <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="7">
-        <v>37.67</v>
-      </c>
-      <c r="C25" s="7">
-        <v>-118.97</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
       <c r="D25" s="9">
         <v>6.0</v>
       </c>
@@ -2025,34 +2004,33 @@
       <c r="Q25" s="10"/>
       <c r="R25" s="10"/>
       <c r="S25" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T25" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U25" s="10"/>
       <c r="V25" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y25" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="Y25" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="7">
-        <v>37.67</v>
-      </c>
-      <c r="C26" s="7">
-        <v>-118.97</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
       <c r="D26" s="9">
         <v>8.0</v>
       </c>
@@ -2087,34 +2065,31 @@
       <c r="Q26" s="10"/>
       <c r="R26" s="10"/>
       <c r="S26" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T26" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U26" s="10"/>
       <c r="V26" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X26" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y26" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="Y26" s="5"/>
       <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="7">
-        <v>37.67</v>
-      </c>
-      <c r="C27" s="7">
-        <v>-118.97</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
       <c r="D27" s="9">
         <v>7.0</v>
       </c>
@@ -2149,34 +2124,31 @@
       <c r="Q27" s="10"/>
       <c r="R27" s="10"/>
       <c r="S27" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T27" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U27" s="10"/>
       <c r="V27" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X27" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y27" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="Y27" s="5"/>
       <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="7">
-        <v>37.67</v>
-      </c>
-      <c r="C28" s="7">
-        <v>-118.97</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
       <c r="D28" s="9">
         <v>8.0</v>
       </c>
@@ -2211,34 +2183,31 @@
       <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
       <c r="S28" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T28" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U28" s="10"/>
       <c r="V28" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y28" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="Y28" s="5"/>
       <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="7">
-        <v>37.67</v>
-      </c>
-      <c r="C29" s="7">
-        <v>-118.97</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
       <c r="D29" s="9">
         <v>8.0</v>
       </c>
@@ -2273,34 +2242,31 @@
       <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
       <c r="S29" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T29" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U29" s="10"/>
       <c r="V29" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W29" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X29" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y29" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="Y29" s="5"/>
       <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="7">
-        <v>37.67</v>
-      </c>
-      <c r="C30" s="7">
-        <v>-118.97</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="9">
         <v>5.0</v>
       </c>
@@ -2335,34 +2301,31 @@
       <c r="Q30" s="10"/>
       <c r="R30" s="10"/>
       <c r="S30" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T30" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U30" s="10"/>
       <c r="V30" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W30" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X30" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y30" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="Y30" s="5"/>
       <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="7">
-        <v>37.67</v>
-      </c>
-      <c r="C31" s="7">
-        <v>-118.97</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
       <c r="D31" s="9">
         <v>6.0</v>
       </c>
@@ -2397,27 +2360,28 @@
       <c r="Q31" s="10"/>
       <c r="R31" s="10"/>
       <c r="S31" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T31" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U31" s="10"/>
       <c r="V31" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W31" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X31" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y31" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="Y31" s="5"/>
       <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B32" s="7">
         <v>35.88</v>
@@ -2456,22 +2420,27 @@
       <c r="R32" s="10"/>
       <c r="S32" s="10"/>
       <c r="T32" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U32" s="10"/>
       <c r="V32" s="5" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="W32" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="X32" s="19"/>
-      <c r="Y32" s="11"/>
+        <v>71</v>
+      </c>
+      <c r="X32" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y32" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B33" s="7">
         <v>35.86</v>
@@ -2510,22 +2479,25 @@
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
       <c r="T33" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U33" s="10"/>
       <c r="V33" s="5" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="W33" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="X33" s="19"/>
-      <c r="Y33" s="11"/>
+        <v>71</v>
+      </c>
+      <c r="X33" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y33" s="19"/>
       <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B34" s="7">
         <v>35.94</v>
@@ -2567,25 +2539,28 @@
       <c r="Q34" s="10"/>
       <c r="R34" s="10"/>
       <c r="S34" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T34" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U34" s="10"/>
       <c r="V34" s="5" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="W34" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="X34" s="19"/>
-      <c r="Y34" s="11"/>
+        <v>71</v>
+      </c>
+      <c r="X34" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y34" s="19"/>
       <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B35" s="7">
         <v>35.82</v>
@@ -2627,25 +2602,30 @@
       <c r="Q35" s="10"/>
       <c r="R35" s="10"/>
       <c r="S35" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T35" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U35" s="10"/>
       <c r="V35" s="5" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="W35" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="X35" s="19"/>
-      <c r="Y35" s="11"/>
+        <v>71</v>
+      </c>
+      <c r="X35" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y35" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B36" s="7">
         <v>35.86</v>
@@ -2687,25 +2667,28 @@
       <c r="Q36" s="10"/>
       <c r="R36" s="10"/>
       <c r="S36" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T36" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U36" s="10"/>
       <c r="V36" s="5" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="W36" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="X36" s="19"/>
-      <c r="Y36" s="11"/>
+        <v>71</v>
+      </c>
+      <c r="X36" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y36" s="19"/>
       <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B37" s="7">
         <v>25.9</v>
@@ -2747,25 +2730,28 @@
       <c r="Q37" s="10"/>
       <c r="R37" s="10"/>
       <c r="S37" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T37" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U37" s="10"/>
       <c r="V37" s="5" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="W37" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="X37" s="19"/>
-      <c r="Y37" s="11"/>
+        <v>71</v>
+      </c>
+      <c r="X37" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y37" s="19"/>
       <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B38" s="7">
         <v>38.33</v>
@@ -2808,20 +2794,23 @@
       <c r="R38" s="21"/>
       <c r="S38" s="21"/>
       <c r="T38" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U38" s="21"/>
       <c r="V38" s="5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="W38" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="X38" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="X38" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y38" s="5"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B39" s="7">
         <v>37.8</v>
@@ -2860,20 +2849,23 @@
       <c r="R39" s="21"/>
       <c r="S39" s="21"/>
       <c r="T39" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U39" s="21"/>
       <c r="V39" s="5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="W39" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="X39" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="X39" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y39" s="5"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B40" s="7">
         <v>37.68</v>
@@ -2912,20 +2904,23 @@
       <c r="R40" s="21"/>
       <c r="S40" s="21"/>
       <c r="T40" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U40" s="21"/>
       <c r="V40" s="5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="W40" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="X40" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="X40" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y40" s="5"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B41" s="7">
         <v>36.91</v>
@@ -2967,23 +2962,26 @@
       <c r="Q41" s="21"/>
       <c r="R41" s="21"/>
       <c r="S41" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T41" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U41" s="21"/>
       <c r="V41" s="5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="W41" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="X41" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="X41" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y41" s="5"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B42" s="7">
         <v>36.84</v>
@@ -3022,20 +3020,23 @@
       <c r="R42" s="21"/>
       <c r="S42" s="6"/>
       <c r="T42" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U42" s="21"/>
       <c r="V42" s="5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="W42" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="X42" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="X42" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y42" s="5"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B43" s="7">
         <v>37.62</v>
@@ -3074,22 +3075,25 @@
       <c r="R43" s="21"/>
       <c r="S43" s="6"/>
       <c r="T43" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U43" s="21"/>
       <c r="V43" s="5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="W43" s="5" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="X43" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="Y43" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B44" s="7">
         <v>39.01</v>
@@ -3131,23 +3135,28 @@
       <c r="Q44" s="21"/>
       <c r="R44" s="21"/>
       <c r="S44" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T44" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U44" s="21"/>
       <c r="V44" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="W44" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="X44" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="X44" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y44" s="5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B45" s="7">
         <v>39.01</v>
@@ -3189,23 +3198,26 @@
       <c r="Q45" s="21"/>
       <c r="R45" s="21"/>
       <c r="S45" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T45" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U45" s="21"/>
       <c r="V45" s="5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="W45" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="X45" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="X45" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y45" s="5"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B46" s="7">
         <v>36.36</v>
@@ -3247,23 +3259,26 @@
       <c r="Q46" s="21"/>
       <c r="R46" s="21"/>
       <c r="S46" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T46" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U46" s="21"/>
       <c r="V46" s="5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="W46" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="X46" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="X46" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y46" s="5"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B47" s="7">
         <v>36.37</v>
@@ -3302,20 +3317,23 @@
       <c r="R47" s="21"/>
       <c r="S47" s="6"/>
       <c r="T47" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U47" s="21"/>
       <c r="V47" s="5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="W47" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="X47" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="X47" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y47" s="5"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B48" s="7">
         <v>36.36</v>
@@ -3354,20 +3372,23 @@
       <c r="R48" s="21"/>
       <c r="S48" s="6"/>
       <c r="T48" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U48" s="21"/>
       <c r="V48" s="5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="W48" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="X48" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="X48" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y48" s="5"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B49" s="7">
         <v>36.36</v>
@@ -3406,20 +3427,23 @@
       <c r="R49" s="21"/>
       <c r="S49" s="21"/>
       <c r="T49" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U49" s="21"/>
       <c r="V49" s="5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="W49" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="X49" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="X49" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y49" s="5"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B50" s="7">
         <v>36.36</v>
@@ -3458,20 +3482,23 @@
       <c r="R50" s="21"/>
       <c r="S50" s="21"/>
       <c r="T50" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U50" s="21"/>
       <c r="V50" s="5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="W50" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="X50" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="X50" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y50" s="5"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B51" s="7">
         <v>36.35</v>
@@ -3510,16 +3537,19 @@
       <c r="R51" s="21"/>
       <c r="S51" s="21"/>
       <c r="T51" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U51" s="21"/>
       <c r="V51" s="5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="W51" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="X51" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="X51" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y51" s="5"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="G52" s="23"/>
